--- a/fun_trenink.xlsx
+++ b/fun_trenink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Desktop\m_a_bakalarka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7637B9-5B52-427E-B2DD-0AF9D008B34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5AF29-6104-4BC5-AA6E-1425C18042A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +101,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -141,6 +153,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -426,7 +444,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+      <selection activeCell="J2" sqref="J2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,52 +504,52 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>104.16666666666667</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>89.772727272727266</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>75.378787878787875</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>107.57575757575759</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>109.84848484848486</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>111.36363636363636</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>111.74242424242425</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>106.43939393939394</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>92.045454545454547</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>91.666666666666671</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>74.621212121212125</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>106.06060606060606</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>102.65151515151514</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>108.33333333333333</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="8">
         <v>104.16666666666667</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="8">
         <v>101.51515151515152</v>
       </c>
     </row>
@@ -539,52 +557,52 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>121.59090909090908</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>96.212121212121218</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>50.378787878787875</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>82.575757575757578</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>114.39393939393941</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>98.106060606060595</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>98.106060606060595</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>118.56060606060606</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="8">
         <v>109.84848484848486</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="8">
         <v>98.484848484848484</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="8">
         <v>48.484848484848477</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="8">
         <v>92.424242424242422</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="8">
         <v>124.24242424242425</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="8">
         <v>96.590909090909093</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="8">
         <v>99.621212121212125</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="8">
         <v>120.45454545454545</v>
       </c>
     </row>
@@ -592,52 +610,52 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>102.29885057471265</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>77.011494252873561</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>59.770114942528743</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>87.356321839080465</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>135.63218390804596</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>129.88505747126439</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>122.98850574712642</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>118.39080459770115</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>106.89655172413792</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>98.850574712643677</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>72.41379310344827</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>98.850574712643677</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="8">
         <v>117.24137931034481</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="8">
         <v>120.68965517241379</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="8">
         <v>121.83908045977012</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="8">
         <v>110.34482758620689</v>
       </c>
     </row>
@@ -645,52 +663,52 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>78.75</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>80.416666666666657</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>85.833333333333343</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>105.41666666666667</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>84.583333333333343</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>85.833333333333343</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>61.666666666666671</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>84.583333333333343</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>81.25</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>97.083333333333343</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>115.83333333333334</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="8">
         <v>111.25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="8">
         <v>95.833333333333343</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="8">
         <v>90</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="8">
         <v>94.583333333333343</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="8">
         <v>83.333333333333343</v>
       </c>
     </row>
@@ -698,52 +716,52 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>103.5294117647059</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>76.470588235294116</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>58.82352941176471</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>89.803921568627445</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>138.8235294117647</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>132.94117647058823</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>124.31372549019608</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>120</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>107.45098039215686</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>100.3921568627451</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>72.549019607843135</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>99.607843137254903</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>119.21568627450981</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="8">
         <v>123.13725490196079</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="8">
         <v>123.52941176470588</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="8">
         <v>113.33333333333333</v>
       </c>
     </row>
@@ -751,52 +769,52 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>105.61797752808988</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>89.513108614232223</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>74.906367041198507</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>108.23970037453184</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>109.36329588014982</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>114.23220973782773</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>111.61048689138575</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>105.61797752808988</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>93.63295880149812</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>92.509363295880149</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>76.404494382022463</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>106.74157303370787</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <v>102.62172284644193</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <v>108.98876404494382</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <v>104.11985018726593</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="8">
         <v>96.629213483146074</v>
       </c>
     </row>
@@ -804,52 +822,52 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>104.65116279069768</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>89.147286821705436</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>74.418604651162795</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>107.36434108527131</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>110.07751937984496</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>113.17829457364341</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>112.79069767441861</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>107.75193798449614</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>94.186046511627907</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>92.248062015503876</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>77.51937984496125</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="8">
         <v>106.20155038759688</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>103.10077519379846</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="8">
         <v>111.24031007751938</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="8">
         <v>107.36434108527131</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="8">
         <v>98.449612403100787</v>
       </c>
     </row>
@@ -857,52 +875,52 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>90.71729957805907</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>81.8565400843882</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>76.371308016877634</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>83.544303797468359</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>102.10970464135021</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>107.59493670886076</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>108.86075949367088</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>97.89029535864978</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="8">
         <v>91.561181434599149</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="8">
         <v>90.71729957805907</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="8">
         <v>72.995780590717303</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="8">
         <v>95.358649789029528</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="8">
         <v>110.12658227848102</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="8">
         <v>107.59493670886076</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="8">
         <v>104.21940928270041</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="8">
         <v>92.827004219409275</v>
       </c>
     </row>
@@ -910,52 +928,52 @@
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>103.2520325203252</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>78.861788617886191</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>88.211382113821131</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>99.59349593495935</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>108.9430894308943</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>112.60162601626016</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>108.9430894308943</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>105.6910569105691</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>99.59349593495935</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>81.300813008130092</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <v>90.650406504065046</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <v>103.65853658536585</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="8">
         <v>107.31707317073172</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="8">
         <v>108.9430894308943</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="8">
         <v>109.75609756097562</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="8">
         <v>100</v>
       </c>
     </row>
@@ -963,52 +981,52 @@
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>100.40160642570282</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>81.124497991967871</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>87.148594377510037</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>100.80321285140563</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>110.04016064257027</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>111.2449799196787</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>108.43373493975903</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>104.41767068273093</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>99.196787148594368</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>79.91967871485943</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="8">
         <v>89.959839357429729</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="8">
         <v>101.60642570281124</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="8">
         <v>110.04016064257027</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="8">
         <v>111.64658634538154</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="8">
         <v>111.64658634538154</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="8">
         <v>98.393574297188763</v>
       </c>
     </row>
